--- a/data-raw/bitácora_ssa.xlsx
+++ b/data-raw/bitácora_ssa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-nacional/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B2F1F-34BE-9E45-BEA4-8EB8A8FDB2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182FA99-23E5-0042-9C58-732E39332586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33580" yWindow="11280" windowWidth="25120" windowHeight="13500" activeTab="6" xr2:uid="{EA61CC18-B893-42EC-B0EF-B2C064690A7F}"/>
+    <workbookView xWindow="-38360" yWindow="4100" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{EA61CC18-B893-42EC-B0EF-B2C064690A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Fecha del reporte</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>20 de febrero</t>
+  </si>
+  <si>
+    <t>23 de febrero</t>
+  </si>
+  <si>
+    <t>ZMVM</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +355,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,12 +385,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -478,6 +514,19 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,11 +843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E731B3-1B40-41F7-971C-B58215C2338A}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -954,7 +1003,7 @@
         <v>6581</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J30" si="0">(I3/B3)</f>
+        <f t="shared" ref="J3:J35" si="0">(I3/B3)</f>
         <v>0.39284861509073543</v>
       </c>
       <c r="K3" s="6"/>
@@ -2351,8 +2400,270 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I31" s="7"/>
-      <c r="O31" s="6"/>
+      <c r="A31" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B31" s="6">
+        <v>74560</v>
+      </c>
+      <c r="C31" s="7">
+        <v>74560</v>
+      </c>
+      <c r="D31" s="33">
+        <v>128691</v>
+      </c>
+      <c r="E31" s="7">
+        <v>128691</v>
+      </c>
+      <c r="F31" s="6">
+        <v>31878</v>
+      </c>
+      <c r="G31" s="7">
+        <v>31878</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="I31" s="7">
+        <v>27044</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" si="0"/>
+        <v>0.36271459227467812</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2588</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2671</v>
+      </c>
+      <c r="O31" s="6">
+        <v>8134</v>
+      </c>
+      <c r="P31" s="7">
+        <v>8134</v>
+      </c>
+      <c r="R31" s="7">
+        <v>235129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B32" s="6">
+        <v>78023</v>
+      </c>
+      <c r="C32" s="7">
+        <v>78023</v>
+      </c>
+      <c r="D32" s="33">
+        <v>133269</v>
+      </c>
+      <c r="E32" s="7">
+        <v>133269</v>
+      </c>
+      <c r="F32" s="6">
+        <v>33566</v>
+      </c>
+      <c r="G32" s="7">
+        <v>33566</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I32" s="7">
+        <v>28248</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="0"/>
+        <v>0.36204708867897928</v>
+      </c>
+      <c r="L32" s="7">
+        <v>2681</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2816</v>
+      </c>
+      <c r="O32" s="6">
+        <v>8597</v>
+      </c>
+      <c r="P32" s="7">
+        <v>8597</v>
+      </c>
+      <c r="R32" s="7">
+        <v>244858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B33" s="6">
+        <v>81400</v>
+      </c>
+      <c r="C33" s="7">
+        <v>81400</v>
+      </c>
+      <c r="D33" s="33">
+        <v>137263</v>
+      </c>
+      <c r="E33" s="7">
+        <v>137263</v>
+      </c>
+      <c r="F33" s="6">
+        <v>36131</v>
+      </c>
+      <c r="G33" s="7">
+        <v>36131</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="I33" s="7">
+        <v>29128</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" si="0"/>
+        <v>0.35783783783783785</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2775</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2916</v>
+      </c>
+      <c r="O33" s="6">
+        <v>9044</v>
+      </c>
+      <c r="P33" s="7">
+        <v>9044</v>
+      </c>
+      <c r="R33" s="7">
+        <v>254794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B34" s="6">
+        <v>84627</v>
+      </c>
+      <c r="C34" s="7">
+        <v>84627</v>
+      </c>
+      <c r="D34" s="33">
+        <v>140553</v>
+      </c>
+      <c r="E34" s="7">
+        <v>140553</v>
+      </c>
+      <c r="F34" s="6">
+        <v>38846</v>
+      </c>
+      <c r="G34" s="7">
+        <v>38846</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="I34" s="7">
+        <v>30012</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="0"/>
+        <v>0.3546385905207558</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <v>2867</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7">
+        <v>3033</v>
+      </c>
+      <c r="O34" s="6">
+        <v>9415</v>
+      </c>
+      <c r="P34" s="7">
+        <v>9415</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7">
+        <v>264026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>43981</v>
+      </c>
+      <c r="B35" s="6">
+        <v>87512</v>
+      </c>
+      <c r="C35" s="7">
+        <v>87512</v>
+      </c>
+      <c r="D35" s="33">
+        <v>144486</v>
+      </c>
+      <c r="E35" s="7">
+        <v>144486</v>
+      </c>
+      <c r="F35" s="6">
+        <v>38994</v>
+      </c>
+      <c r="G35" s="7">
+        <v>38994</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0.3533</v>
+      </c>
+      <c r="I35" s="7">
+        <v>30916</v>
+      </c>
+      <c r="J35" s="28">
+        <f>(I35/B35)</f>
+        <v>0.35327726483225158</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7">
+        <v>3109</v>
+      </c>
+      <c r="O35" s="6">
+        <v>9779</v>
+      </c>
+      <c r="P35" s="7">
+        <v>9779</v>
+      </c>
+      <c r="R35" s="7">
+        <v>270992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>43982</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="28"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2362,11 +2673,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D43BC64-69CE-4F1B-93A0-728BCF200F50}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2808,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>43971</v>
       </c>
@@ -2835,7 +3146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>43972</v>
       </c>
@@ -2862,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>43973</v>
       </c>
@@ -2889,7 +3200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>43974</v>
       </c>
@@ -2916,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>43975</v>
       </c>
@@ -2945,7 +3256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>43976</v>
       </c>
@@ -2974,16 +3285,167 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B23" s="20">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>43978</v>
+      </c>
+      <c r="B24" s="40">
+        <v>0</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1</v>
+      </c>
+      <c r="D24" s="40">
+        <v>1</v>
+      </c>
+      <c r="E24" s="40">
+        <v>1</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>43979</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <v>4</v>
+      </c>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>43980</v>
+      </c>
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>4</v>
+      </c>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B27" s="20">
+        <v>0</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>4</v>
+      </c>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,11 +3455,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15864BAC-B75E-4612-A721-D046990F4AFC}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:L22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3785,32 +4247,282 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="A23" s="17">
+        <v>43977</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="17">
+        <v>43978</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>43979</v>
+      </c>
+      <c r="B25" s="38">
+        <v>0</v>
+      </c>
+      <c r="C25" s="38">
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <v>0</v>
+      </c>
+      <c r="E25" s="38">
+        <v>1</v>
+      </c>
+      <c r="F25" s="38">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
+        <v>0</v>
+      </c>
+      <c r="I25" s="38">
+        <v>1</v>
+      </c>
+      <c r="J25" s="38">
+        <v>1</v>
+      </c>
+      <c r="K25" s="38">
+        <v>0</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
+        <v>43980</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="39">
+        <v>43981</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3820,21 +4532,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BBB3D-569F-47E0-83E1-BDD7AE3A01DA}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3842,32 +4554,33 @@
         <v>73</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>43956</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="20">
+      <c r="C2" s="35"/>
+      <c r="D2" s="20">
         <v>2</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
@@ -3875,20 +4588,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>43957</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="20">
+      <c r="C3" s="35"/>
+      <c r="D3" s="20">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -3896,20 +4610,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>43958</v>
       </c>
       <c r="B4" s="35"/>
-      <c r="C4" s="20">
+      <c r="C4" s="35"/>
+      <c r="D4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
@@ -3917,20 +4632,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>43959</v>
       </c>
       <c r="B5" s="35"/>
-      <c r="C5" s="20">
+      <c r="C5" s="35"/>
+      <c r="D5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
@@ -3938,20 +4654,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>43960</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="20">
+      <c r="C6" s="35"/>
+      <c r="D6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
@@ -3959,20 +4676,21 @@
         <v>1</v>
       </c>
       <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>43961</v>
       </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="20">
+      <c r="C7" s="35"/>
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
@@ -3980,20 +4698,21 @@
         <v>1</v>
       </c>
       <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>43962</v>
       </c>
       <c r="B8" s="35"/>
-      <c r="C8" s="20">
+      <c r="C8" s="35"/>
+      <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
@@ -4001,20 +4720,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>43963</v>
       </c>
       <c r="B9" s="35"/>
-      <c r="C9" s="20">
+      <c r="C9" s="35"/>
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
@@ -4022,20 +4742,21 @@
         <v>1</v>
       </c>
       <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>43964</v>
       </c>
       <c r="B10" s="35"/>
-      <c r="C10" s="20">
+      <c r="C10" s="35"/>
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
@@ -4045,18 +4766,19 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>43965</v>
       </c>
       <c r="B11" s="35"/>
-      <c r="C11" s="20">
+      <c r="C11" s="35"/>
+      <c r="D11" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
       <c r="E11" s="20">
         <v>1</v>
       </c>
@@ -4064,20 +4786,21 @@
         <v>1</v>
       </c>
       <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>43966</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="C12" s="8">
+      <c r="C12" s="35"/>
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
@@ -4085,20 +4808,21 @@
         <v>1</v>
       </c>
       <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>43967</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="26">
+      <c r="C13" s="35"/>
+      <c r="D13" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="26">
-        <v>1</v>
-      </c>
       <c r="E13" s="26">
         <v>1</v>
       </c>
@@ -4106,20 +4830,21 @@
         <v>1</v>
       </c>
       <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>43968</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="26">
+      <c r="C14" s="35"/>
+      <c r="D14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>
@@ -4127,20 +4852,21 @@
         <v>1</v>
       </c>
       <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>43969</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="26">
+      <c r="C15" s="35"/>
+      <c r="D15" s="26">
         <v>2</v>
       </c>
-      <c r="D15" s="26">
-        <v>1</v>
-      </c>
       <c r="E15" s="26">
         <v>1</v>
       </c>
@@ -4148,20 +4874,21 @@
         <v>1</v>
       </c>
       <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>43970</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="8">
+      <c r="C16" s="35"/>
+      <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
@@ -4169,20 +4896,21 @@
         <v>1</v>
       </c>
       <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>43971</v>
       </c>
       <c r="B17" s="35"/>
-      <c r="C17" s="26">
+      <c r="C17" s="35"/>
+      <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="D17" s="26">
-        <v>1</v>
-      </c>
       <c r="E17" s="26">
         <v>1</v>
       </c>
@@ -4190,20 +4918,21 @@
         <v>1</v>
       </c>
       <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>43972</v>
       </c>
       <c r="B18" s="35"/>
-      <c r="C18" s="8">
+      <c r="C18" s="35"/>
+      <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
@@ -4213,18 +4942,19 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>43973</v>
       </c>
       <c r="B19" s="36"/>
-      <c r="C19" s="8">
+      <c r="C19" s="36"/>
+      <c r="D19" s="8">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
@@ -4232,20 +4962,21 @@
         <v>1</v>
       </c>
       <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>43974</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="8">
+      <c r="C20" s="36"/>
+      <c r="D20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
@@ -4253,22 +4984,23 @@
         <v>1</v>
       </c>
       <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>43975</v>
       </c>
       <c r="B21" s="37">
         <v>1</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="37"/>
+      <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
@@ -4276,19 +5008,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>43976</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
@@ -4299,53 +5032,191 @@
         <v>1</v>
       </c>
       <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>43977</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>43978</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
+        <v>43979</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
+        <v>43980</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="42">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>43981</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>43982</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4354,16 +5225,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4720EEB-7A0B-2E48-9142-7C3AAC16DA00}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
@@ -4424,8 +5295,26 @@
       <c r="T1" s="22">
         <v>43976</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="22">
+        <v>43977</v>
+      </c>
+      <c r="V1" s="22">
+        <v>43978</v>
+      </c>
+      <c r="W1" s="22">
+        <v>43979</v>
+      </c>
+      <c r="X1" s="22">
+        <v>43980</v>
+      </c>
+      <c r="Y1" s="22">
+        <v>43981</v>
+      </c>
+      <c r="Z1" s="22">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>39</v>
       </c>
@@ -4486,8 +5375,23 @@
       <c r="T2">
         <v>2837</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>2808</v>
+      </c>
+      <c r="V2">
+        <v>2840</v>
+      </c>
+      <c r="W2">
+        <v>2872</v>
+      </c>
+      <c r="X2">
+        <v>2904</v>
+      </c>
+      <c r="Y2">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
@@ -4548,8 +5452,23 @@
       <c r="T3">
         <v>2629</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>2592</v>
+      </c>
+      <c r="V3">
+        <v>2624</v>
+      </c>
+      <c r="W3">
+        <v>2684</v>
+      </c>
+      <c r="X3">
+        <v>2716</v>
+      </c>
+      <c r="Y3">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
@@ -4610,8 +5529,23 @@
       <c r="T4">
         <v>2629</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>2592</v>
+      </c>
+      <c r="V4">
+        <v>2624</v>
+      </c>
+      <c r="W4">
+        <v>2684</v>
+      </c>
+      <c r="X4">
+        <v>2716</v>
+      </c>
+      <c r="Y4">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>42</v>
       </c>
@@ -4672,8 +5606,23 @@
       <c r="T5">
         <v>2629</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>2592</v>
+      </c>
+      <c r="V5">
+        <v>2624</v>
+      </c>
+      <c r="W5">
+        <v>2684</v>
+      </c>
+      <c r="X5">
+        <v>2716</v>
+      </c>
+      <c r="Y5">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
@@ -4734,8 +5683,23 @@
       <c r="T6">
         <v>2629</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <v>2592</v>
+      </c>
+      <c r="V6">
+        <v>2624</v>
+      </c>
+      <c r="W6">
+        <v>2684</v>
+      </c>
+      <c r="X6">
+        <v>2716</v>
+      </c>
+      <c r="Y6">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>44</v>
       </c>
@@ -4796,8 +5760,23 @@
       <c r="T7">
         <v>1858</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>1890</v>
+      </c>
+      <c r="V7">
+        <v>1922</v>
+      </c>
+      <c r="W7">
+        <v>1954</v>
+      </c>
+      <c r="X7">
+        <v>1986</v>
+      </c>
+      <c r="Y7">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
@@ -4858,11 +5837,26 @@
       <c r="T8">
         <v>4462</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <v>4494</v>
+      </c>
+      <c r="V8">
+        <v>4526</v>
+      </c>
+      <c r="W8">
+        <v>4558</v>
+      </c>
+      <c r="X8">
+        <v>4590</v>
+      </c>
+      <c r="Y8">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>46</v>
       </c>
@@ -4923,8 +5917,23 @@
       <c r="T10">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>134</v>
+      </c>
+      <c r="V10">
+        <v>135</v>
+      </c>
+      <c r="W10">
+        <v>136</v>
+      </c>
+      <c r="X10">
+        <v>137</v>
+      </c>
+      <c r="Y10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
@@ -4985,8 +5994,23 @@
       <c r="T11">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>134</v>
+      </c>
+      <c r="V11">
+        <v>135</v>
+      </c>
+      <c r="W11">
+        <v>136</v>
+      </c>
+      <c r="X11">
+        <v>137</v>
+      </c>
+      <c r="Y11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
@@ -5047,8 +6071,23 @@
       <c r="T12">
         <v>139</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12">
+        <v>134</v>
+      </c>
+      <c r="V12">
+        <v>135</v>
+      </c>
+      <c r="W12">
+        <v>136</v>
+      </c>
+      <c r="X12">
+        <v>137</v>
+      </c>
+      <c r="Y12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>48</v>
       </c>
@@ -5109,8 +6148,23 @@
       <c r="T13">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>134</v>
+      </c>
+      <c r="V13">
+        <v>135</v>
+      </c>
+      <c r="W13">
+        <v>136</v>
+      </c>
+      <c r="X13">
+        <v>137</v>
+      </c>
+      <c r="Y13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>49</v>
       </c>
@@ -5171,8 +6225,23 @@
       <c r="T14">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14">
+        <v>134</v>
+      </c>
+      <c r="V14">
+        <v>135</v>
+      </c>
+      <c r="W14">
+        <v>136</v>
+      </c>
+      <c r="X14">
+        <v>137</v>
+      </c>
+      <c r="Y14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>50</v>
       </c>
@@ -5233,8 +6302,23 @@
       <c r="T15">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15">
+        <v>97</v>
+      </c>
+      <c r="V15">
+        <v>98</v>
+      </c>
+      <c r="W15">
+        <v>99</v>
+      </c>
+      <c r="X15">
+        <v>100</v>
+      </c>
+      <c r="Y15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
@@ -5295,89 +6379,144 @@
       <c r="T16">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U16">
+        <v>147</v>
+      </c>
+      <c r="V16">
+        <v>148</v>
+      </c>
+      <c r="W16">
+        <v>149</v>
+      </c>
+      <c r="X16">
+        <v>150</v>
+      </c>
+      <c r="Y16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18">
+        <v>708</v>
+      </c>
+      <c r="W18">
+        <v>715</v>
+      </c>
+      <c r="X18">
+        <v>722</v>
+      </c>
+      <c r="Y18">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B18">
-        <f t="shared" ref="B18:T18" si="0">SUM(B2:B16)</f>
+      <c r="B20">
+        <f t="shared" ref="B20:U20" si="0">SUM(B2:B16)</f>
         <v>16189</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>16385</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>16595</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>16795</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>17030</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>17347</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>17552</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>17817</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>18074</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>18256</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>18449</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <f t="shared" si="0"/>
         <v>18477</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>18639</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <f t="shared" si="0"/>
         <v>18883</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <f t="shared" si="0"/>
         <v>19180</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>19711</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>20148</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f t="shared" si="0"/>
         <v>20379</v>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>20610</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>20474</v>
+      </c>
+      <c r="V20">
+        <f>SUM(V2:V18)</f>
+        <v>21413</v>
+      </c>
+      <c r="W20">
+        <f>SUM(W2:W18)</f>
+        <v>21763</v>
+      </c>
+      <c r="X20">
+        <f>SUM(X2:X18)</f>
+        <v>22001</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(Y2:Y18)</f>
+        <v>22307</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +6529,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5402,7 +6541,9 @@
       <c r="B1" s="22">
         <v>43968</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="22">
+        <v>43978</v>
+      </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -5420,7 +6561,9 @@
       <c r="B2">
         <v>29069</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="27">
+        <v>61368</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
@@ -5429,6 +6572,9 @@
       <c r="B3">
         <v>27492</v>
       </c>
+      <c r="C3">
+        <v>54975</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -5437,6 +6583,9 @@
       <c r="B4">
         <v>27492</v>
       </c>
+      <c r="C4">
+        <v>54975</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
@@ -5445,6 +6594,9 @@
       <c r="B5">
         <v>27492</v>
       </c>
+      <c r="C5">
+        <v>54975</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
@@ -5453,6 +6605,9 @@
       <c r="B6">
         <v>27492</v>
       </c>
+      <c r="C6">
+        <v>54975</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -5461,6 +6616,9 @@
       <c r="B7">
         <v>8617</v>
       </c>
+      <c r="C7">
+        <v>24175</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
@@ -5469,6 +6627,9 @@
       <c r="B8">
         <v>77869</v>
       </c>
+      <c r="C8">
+        <v>113639</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -5480,6 +6641,10 @@
       <c r="B10">
         <f>SUM(B2:B8)</f>
         <v>225523</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C8)</f>
+        <v>419082</v>
       </c>
     </row>
   </sheetData>
@@ -5492,7 +6657,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data-raw/bitácora_ssa.xlsx
+++ b/data-raw/bitácora_ssa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-nacional/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadi/Documents/GitHub/covid19-mx-data/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182FA99-23E5-0042-9C58-732E39332586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F54EBB-D2CE-814B-8D4F-168140874327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38360" yWindow="4100" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{EA61CC18-B893-42EC-B0EF-B2C064690A7F}"/>
+    <workbookView xWindow="10200" yWindow="3700" windowWidth="15400" windowHeight="12300" activeTab="5" xr2:uid="{EA61CC18-B893-42EC-B0EF-B2C064690A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,7 +547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1003,7 +1003,7 @@
         <v>6581</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J35" si="0">(I3/B3)</f>
+        <f t="shared" ref="J3:J34" si="0">(I3/B3)</f>
         <v>0.39284861509073543</v>
       </c>
       <c r="K3" s="6"/>
@@ -6528,8 +6528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEFAF23-6504-B540-A827-4BCE378F0E12}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6544,7 +6544,9 @@
       <c r="C1" s="22">
         <v>43978</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="22">
+        <v>43986</v>
+      </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -6564,6 +6566,9 @@
       <c r="C2" s="27">
         <v>61368</v>
       </c>
+      <c r="D2">
+        <v>74829</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
@@ -6575,6 +6580,9 @@
       <c r="C3">
         <v>54975</v>
       </c>
+      <c r="D3">
+        <v>67914</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -6586,6 +6594,9 @@
       <c r="C4">
         <v>54975</v>
       </c>
+      <c r="D4">
+        <v>67914</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
@@ -6597,6 +6608,9 @@
       <c r="C5">
         <v>54975</v>
       </c>
+      <c r="D5">
+        <v>67914</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
@@ -6608,6 +6622,9 @@
       <c r="C6">
         <v>54975</v>
       </c>
+      <c r="D6">
+        <v>67914</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -6619,6 +6636,9 @@
       <c r="C7">
         <v>24175</v>
       </c>
+      <c r="D7">
+        <v>31690</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
@@ -6630,6 +6650,9 @@
       <c r="C8">
         <v>113639</v>
       </c>
+      <c r="D8">
+        <v>129929</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -6645,6 +6668,10 @@
       <c r="C10">
         <f>SUM(C2:C8)</f>
         <v>419082</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D8)</f>
+        <v>508104</v>
       </c>
     </row>
   </sheetData>
@@ -6656,7 +6683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D853C6-E82A-4F69-B736-BB3A2FD2C788}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
